--- a/upload_files/data_emgineer_jr__jodel_job.xlsx
+++ b/upload_files/data_emgineer_jr__jodel_job.xlsx
@@ -175,10 +175,10 @@
     <t>scikit-learn : 1</t>
   </si>
   <si>
+    <t>startup : 1</t>
+  </si>
+  <si>
     <t>redshift : 3</t>
-  </si>
-  <si>
-    <t>startup : 1</t>
   </si>
   <si>
     <t>s3 : 2</t>
